--- a/User information.xlsx
+++ b/User information.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3435" yWindow="4635" windowWidth="28800" windowHeight="15345" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="User 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="User 2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +17,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="[hh]:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +51,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,17 +401,78 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="C11:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="1" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Start Shift</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>End Shift</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total Shift Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>44672.45112268518</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>44672.45114583334</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>2.513888888888889e-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>44672.48027224743</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>44672.48032084869</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>4.860126157407408e-05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
